--- a/Weapon.xlsx
+++ b/Weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -39,6 +39,27 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>sword_33</t>
+  </si>
+  <si>
+    <t>sword_33 (1)</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>sword_32</t>
+  </si>
+  <si>
+    <t>sword_32 (1)</t>
+  </si>
+  <si>
+    <t>Bloodstone</t>
   </si>
   <si>
     <t>Exotic Scimitar</t>
@@ -97,7 +118,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -155,6 +176,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0">
+        <v>24</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Weapon.xlsx
+++ b/Weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>Zircon</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Jousting Lance</t>
+  </si>
+  <si>
+    <t>Jousting Lance (140)</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Jousting Lance (147)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +139,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -228,6 +249,58 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0">
+        <v>20</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Weapon.xlsx
+++ b/Weapon.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OOP-custom-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCA455E-802F-450D-88EA-220C580EF946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B816F2-7E1C-47AF-B336-6DE2F4A435B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Components" sheetId="1" r:id="rId1"/>
+    <sheet name="Weapon" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -395,7 +395,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Weapon.xlsx
+++ b/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OOP-custom-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44CE849-FF1A-466A-A968-0BF432F2CE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EAAC90-575A-4F0C-AC62-C0B9BB71E65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
